--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.2243578862117</v>
+        <v>144.843106</v>
       </c>
       <c r="H2">
-        <v>46.2243578862117</v>
+        <v>434.529318</v>
       </c>
       <c r="I2">
-        <v>0.3825200913773227</v>
+        <v>0.6517202749316883</v>
       </c>
       <c r="J2">
-        <v>0.3825200913773227</v>
+        <v>0.6517202749316884</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.357444554808092</v>
+        <v>0.258104</v>
       </c>
       <c r="N2">
-        <v>0.357444554808092</v>
+        <v>0.774312</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1872068365339493</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1872068365339493</v>
       </c>
       <c r="Q2">
-        <v>16.52264502592686</v>
+        <v>37.384585031024</v>
       </c>
       <c r="R2">
-        <v>16.52264502592686</v>
+        <v>336.461265279216</v>
       </c>
       <c r="S2">
-        <v>0.3825200913773227</v>
+        <v>0.122006490974997</v>
       </c>
       <c r="T2">
-        <v>0.3825200913773227</v>
+        <v>0.1220064909749971</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.7697434139267</v>
+        <v>144.843106</v>
       </c>
       <c r="H3">
-        <v>33.7697434139267</v>
+        <v>434.529318</v>
       </c>
       <c r="I3">
-        <v>0.2794545111536786</v>
+        <v>0.6517202749316883</v>
       </c>
       <c r="J3">
-        <v>0.2794545111536786</v>
+        <v>0.6517202749316884</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.357444554808092</v>
+        <v>0.05768400000000001</v>
       </c>
       <c r="N3">
-        <v>0.357444554808092</v>
+        <v>0.173052</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.04183910035731461</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.04183910035731461</v>
       </c>
       <c r="Q3">
-        <v>12.07081090057452</v>
+        <v>8.355129726504002</v>
       </c>
       <c r="R3">
-        <v>12.07081090057452</v>
+        <v>75.196167538536</v>
       </c>
       <c r="S3">
-        <v>0.2794545111536786</v>
+        <v>0.02726738998776357</v>
       </c>
       <c r="T3">
-        <v>0.2794545111536786</v>
+        <v>0.02726738998776358</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.9776585834394</v>
+        <v>144.843106</v>
       </c>
       <c r="H4">
-        <v>38.9776585834394</v>
+        <v>434.529318</v>
       </c>
       <c r="I4">
-        <v>0.3225515335380951</v>
+        <v>0.6517202749316883</v>
       </c>
       <c r="J4">
-        <v>0.3225515335380951</v>
+        <v>0.6517202749316884</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.357444554808092</v>
+        <v>0.320877</v>
       </c>
       <c r="N4">
-        <v>0.357444554808092</v>
+        <v>0.962631</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.2327370675638659</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.2327370675638659</v>
       </c>
       <c r="Q4">
-        <v>13.9323518198193</v>
+        <v>46.47682132396201</v>
       </c>
       <c r="R4">
-        <v>13.9323518198193</v>
+        <v>418.291391915658</v>
       </c>
       <c r="S4">
-        <v>0.3225515335380951</v>
+        <v>0.1516794656595176</v>
       </c>
       <c r="T4">
-        <v>0.3225515335380951</v>
+        <v>0.1516794656595176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,52 +717,796 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.86988720422291</v>
+        <v>144.843106</v>
       </c>
       <c r="H5">
-        <v>1.86988720422291</v>
+        <v>434.529318</v>
       </c>
       <c r="I5">
-        <v>0.01547386393090367</v>
+        <v>0.6517202749316883</v>
       </c>
       <c r="J5">
-        <v>0.01547386393090367</v>
+        <v>0.6517202749316884</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.357444554808092</v>
+        <v>0.7420453333333333</v>
       </c>
       <c r="N5">
-        <v>0.357444554808092</v>
+        <v>2.226136</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.5382169955448703</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5382169955448703</v>
       </c>
       <c r="Q5">
-        <v>0.6683809992548059</v>
+        <v>107.4801508728053</v>
       </c>
       <c r="R5">
-        <v>0.6683809992548059</v>
+        <v>967.3213578552479</v>
       </c>
       <c r="S5">
-        <v>0.01547386393090367</v>
+        <v>0.3507669283094101</v>
       </c>
       <c r="T5">
-        <v>0.01547386393090367</v>
+        <v>0.3507669283094102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>33.793597</v>
+      </c>
+      <c r="H6">
+        <v>101.380791</v>
+      </c>
+      <c r="I6">
+        <v>0.1520539909422453</v>
+      </c>
+      <c r="J6">
+        <v>0.1520539909422453</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.258104</v>
+      </c>
+      <c r="N6">
+        <v>0.774312</v>
+      </c>
+      <c r="O6">
+        <v>0.1872068365339493</v>
+      </c>
+      <c r="P6">
+        <v>0.1872068365339493</v>
+      </c>
+      <c r="Q6">
+        <v>8.722262560088</v>
+      </c>
+      <c r="R6">
+        <v>78.500363040792</v>
+      </c>
+      <c r="S6">
+        <v>0.02846554662665952</v>
+      </c>
+      <c r="T6">
+        <v>0.02846554662665952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>33.793597</v>
+      </c>
+      <c r="H7">
+        <v>101.380791</v>
+      </c>
+      <c r="I7">
+        <v>0.1520539909422453</v>
+      </c>
+      <c r="J7">
+        <v>0.1520539909422453</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.05768400000000001</v>
+      </c>
+      <c r="N7">
+        <v>0.173052</v>
+      </c>
+      <c r="O7">
+        <v>0.04183910035731461</v>
+      </c>
+      <c r="P7">
+        <v>0.04183910035731461</v>
+      </c>
+      <c r="Q7">
+        <v>1.949349849348</v>
+      </c>
+      <c r="R7">
+        <v>17.544148644132</v>
+      </c>
+      <c r="S7">
+        <v>0.006361802186762807</v>
+      </c>
+      <c r="T7">
+        <v>0.006361802186762807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>33.793597</v>
+      </c>
+      <c r="H8">
+        <v>101.380791</v>
+      </c>
+      <c r="I8">
+        <v>0.1520539909422453</v>
+      </c>
+      <c r="J8">
+        <v>0.1520539909422453</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.320877</v>
+      </c>
+      <c r="N8">
+        <v>0.962631</v>
+      </c>
+      <c r="O8">
+        <v>0.2327370675638659</v>
+      </c>
+      <c r="P8">
+        <v>0.2327370675638659</v>
+      </c>
+      <c r="Q8">
+        <v>10.843588024569</v>
+      </c>
+      <c r="R8">
+        <v>97.592292221121</v>
+      </c>
+      <c r="S8">
+        <v>0.0353885999632808</v>
+      </c>
+      <c r="T8">
+        <v>0.0353885999632808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>33.793597</v>
+      </c>
+      <c r="H9">
+        <v>101.380791</v>
+      </c>
+      <c r="I9">
+        <v>0.1520539909422453</v>
+      </c>
+      <c r="J9">
+        <v>0.1520539909422453</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7420453333333333</v>
+      </c>
+      <c r="N9">
+        <v>2.226136</v>
+      </c>
+      <c r="O9">
+        <v>0.5382169955448703</v>
+      </c>
+      <c r="P9">
+        <v>0.5382169955448703</v>
+      </c>
+      <c r="Q9">
+        <v>25.07638095039733</v>
+      </c>
+      <c r="R9">
+        <v>225.687428553576</v>
+      </c>
+      <c r="S9">
+        <v>0.0818380421655422</v>
+      </c>
+      <c r="T9">
+        <v>0.0818380421655422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>41.33760066666667</v>
+      </c>
+      <c r="H10">
+        <v>124.012802</v>
+      </c>
+      <c r="I10">
+        <v>0.1859981687460937</v>
+      </c>
+      <c r="J10">
+        <v>0.1859981687460937</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.258104</v>
+      </c>
+      <c r="N10">
+        <v>0.774312</v>
+      </c>
+      <c r="O10">
+        <v>0.1872068365339493</v>
+      </c>
+      <c r="P10">
+        <v>0.1872068365339493</v>
+      </c>
+      <c r="Q10">
+        <v>10.66940008246933</v>
+      </c>
+      <c r="R10">
+        <v>96.024600742224</v>
+      </c>
+      <c r="S10">
+        <v>0.03482012877206388</v>
+      </c>
+      <c r="T10">
+        <v>0.03482012877206388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>41.33760066666667</v>
+      </c>
+      <c r="H11">
+        <v>124.012802</v>
+      </c>
+      <c r="I11">
+        <v>0.1859981687460937</v>
+      </c>
+      <c r="J11">
+        <v>0.1859981687460937</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.05768400000000001</v>
+      </c>
+      <c r="N11">
+        <v>0.173052</v>
+      </c>
+      <c r="O11">
+        <v>0.04183910035731461</v>
+      </c>
+      <c r="P11">
+        <v>0.04183910035731461</v>
+      </c>
+      <c r="Q11">
+        <v>2.384518156856</v>
+      </c>
+      <c r="R11">
+        <v>21.460663411704</v>
+      </c>
+      <c r="S11">
+        <v>0.007781996048444552</v>
+      </c>
+      <c r="T11">
+        <v>0.007781996048444552</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>41.33760066666667</v>
+      </c>
+      <c r="H12">
+        <v>124.012802</v>
+      </c>
+      <c r="I12">
+        <v>0.1859981687460937</v>
+      </c>
+      <c r="J12">
+        <v>0.1859981687460937</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.320877</v>
+      </c>
+      <c r="N12">
+        <v>0.962631</v>
+      </c>
+      <c r="O12">
+        <v>0.2327370675638659</v>
+      </c>
+      <c r="P12">
+        <v>0.2327370675638659</v>
+      </c>
+      <c r="Q12">
+        <v>13.264285289118</v>
+      </c>
+      <c r="R12">
+        <v>119.378567602062</v>
+      </c>
+      <c r="S12">
+        <v>0.04328866836621494</v>
+      </c>
+      <c r="T12">
+        <v>0.04328866836621494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>41.33760066666667</v>
+      </c>
+      <c r="H13">
+        <v>124.012802</v>
+      </c>
+      <c r="I13">
+        <v>0.1859981687460937</v>
+      </c>
+      <c r="J13">
+        <v>0.1859981687460937</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7420453333333333</v>
+      </c>
+      <c r="N13">
+        <v>2.226136</v>
+      </c>
+      <c r="O13">
+        <v>0.5382169955448703</v>
+      </c>
+      <c r="P13">
+        <v>0.5382169955448703</v>
+      </c>
+      <c r="Q13">
+        <v>30.67437366589689</v>
+      </c>
+      <c r="R13">
+        <v>276.069362993072</v>
+      </c>
+      <c r="S13">
+        <v>0.1001073755593704</v>
+      </c>
+      <c r="T13">
+        <v>0.1001073755593704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.273049333333333</v>
+      </c>
+      <c r="H14">
+        <v>6.819148</v>
+      </c>
+      <c r="I14">
+        <v>0.01022756537997252</v>
+      </c>
+      <c r="J14">
+        <v>0.01022756537997253</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.258104</v>
+      </c>
+      <c r="N14">
+        <v>0.774312</v>
+      </c>
+      <c r="O14">
+        <v>0.1872068365339493</v>
+      </c>
+      <c r="P14">
+        <v>0.1872068365339493</v>
+      </c>
+      <c r="Q14">
+        <v>0.5866831251306667</v>
+      </c>
+      <c r="R14">
+        <v>5.280148126176</v>
+      </c>
+      <c r="S14">
+        <v>0.001914670160228795</v>
+      </c>
+      <c r="T14">
+        <v>0.001914670160228796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.273049333333333</v>
+      </c>
+      <c r="H15">
+        <v>6.819148</v>
+      </c>
+      <c r="I15">
+        <v>0.01022756537997252</v>
+      </c>
+      <c r="J15">
+        <v>0.01022756537997253</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.05768400000000001</v>
+      </c>
+      <c r="N15">
+        <v>0.173052</v>
+      </c>
+      <c r="O15">
+        <v>0.04183910035731461</v>
+      </c>
+      <c r="P15">
+        <v>0.04183910035731461</v>
+      </c>
+      <c r="Q15">
+        <v>0.131118577744</v>
+      </c>
+      <c r="R15">
+        <v>1.180067199696</v>
+      </c>
+      <c r="S15">
+        <v>0.000427912134343667</v>
+      </c>
+      <c r="T15">
+        <v>0.000427912134343667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.273049333333333</v>
+      </c>
+      <c r="H16">
+        <v>6.819148</v>
+      </c>
+      <c r="I16">
+        <v>0.01022756537997252</v>
+      </c>
+      <c r="J16">
+        <v>0.01022756537997253</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.320877</v>
+      </c>
+      <c r="N16">
+        <v>0.962631</v>
+      </c>
+      <c r="O16">
+        <v>0.2327370675638659</v>
+      </c>
+      <c r="P16">
+        <v>0.2327370675638659</v>
+      </c>
+      <c r="Q16">
+        <v>0.729369250932</v>
+      </c>
+      <c r="R16">
+        <v>6.564323258388001</v>
+      </c>
+      <c r="S16">
+        <v>0.002380333574852521</v>
+      </c>
+      <c r="T16">
+        <v>0.002380333574852521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.273049333333333</v>
+      </c>
+      <c r="H17">
+        <v>6.819148</v>
+      </c>
+      <c r="I17">
+        <v>0.01022756537997252</v>
+      </c>
+      <c r="J17">
+        <v>0.01022756537997253</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.7420453333333333</v>
+      </c>
+      <c r="N17">
+        <v>2.226136</v>
+      </c>
+      <c r="O17">
+        <v>0.5382169955448703</v>
+      </c>
+      <c r="P17">
+        <v>0.5382169955448703</v>
+      </c>
+      <c r="Q17">
+        <v>1.686705650236444</v>
+      </c>
+      <c r="R17">
+        <v>15.180350852128</v>
+      </c>
+      <c r="S17">
+        <v>0.005504649510547543</v>
+      </c>
+      <c r="T17">
+        <v>0.005504649510547544</v>
       </c>
     </row>
   </sheetData>
